--- a/results/results_gps.xlsx
+++ b/results/results_gps.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -998,20 +998,20 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.0008482969783928568</v>
+        <v>-3.693150002290426e-05</v>
       </c>
       <c r="B18">
-        <v>0.0002198963685579841</v>
+        <v>0.0001796361841279351</v>
       </c>
       <c r="C18">
-        <v>-0.001288089715508825</v>
+        <v>-0.0003962038682787744</v>
       </c>
       <c r="D18">
-        <v>-0.0004085042412768885</v>
+        <v>0.0003223408682329659</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1024,31 +1024,31 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-7.474251820940729e-06</v>
+        <v>2.742772293072679e-05</v>
       </c>
       <c r="B19">
-        <v>0.0002356260131340584</v>
+        <v>0.0003086982114882197</v>
       </c>
       <c r="C19">
-        <v>-0.0004787262780890574</v>
+        <v>-0.0005899687000457127</v>
       </c>
       <c r="D19">
-        <v>0.000463777774447176</v>
+        <v>0.0006448241459071662</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1061,31 +1061,31 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.0003805941283278286</v>
+        <v>-0.000131794549732757</v>
       </c>
       <c r="B20">
-        <v>0.0001387990348836742</v>
+        <v>0.0002916688226907353</v>
       </c>
       <c r="C20">
-        <v>-0.0006581921980951769</v>
+        <v>-0.0007151321951142276</v>
       </c>
       <c r="D20">
-        <v>-0.0001029960585604801</v>
+        <v>0.0004515430956487136</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1098,31 +1098,31 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>7.900696844956722e-07</v>
+        <v>1.913565774457908e-05</v>
       </c>
       <c r="B21">
-        <v>0.000166137900215154</v>
+        <v>0.0001943526265631587</v>
       </c>
       <c r="C21">
-        <v>-0.0003314857307458122</v>
+        <v>-0.0003695695953817383</v>
       </c>
       <c r="D21">
-        <v>0.0003330658701148036</v>
+        <v>0.0004078409108708964</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1135,31 +1135,31 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.0008482969783928568</v>
+        <v>-3.693150002290426e-05</v>
       </c>
       <c r="B22">
-        <v>0.0002198963685579841</v>
+        <v>0.0001796361841279351</v>
       </c>
       <c r="C22">
-        <v>-0.001288089715508825</v>
+        <v>-0.0003962038682787744</v>
       </c>
       <c r="D22">
-        <v>-0.0004085042412768885</v>
+        <v>0.0003223408682329659</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1172,31 +1172,31 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.0008557712302137975</v>
+        <v>-9.503777092177472e-06</v>
       </c>
       <c r="B23">
-        <v>1.681850016790964e-05</v>
+        <v>0.0004339758130918978</v>
       </c>
       <c r="C23">
-        <v>-0.0008894082305496168</v>
+        <v>-0.0008774554032759731</v>
       </c>
       <c r="D23">
-        <v>-0.0008221342298779783</v>
+        <v>0.0008584478490916181</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1209,31 +1209,31 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.001236365358541626</v>
+        <v>-0.0001412983268249345</v>
       </c>
       <c r="B24">
-        <v>0.0001556161455026963</v>
+        <v>0.0005038841645236029</v>
       </c>
       <c r="C24">
-        <v>-0.001547597649547019</v>
+        <v>-0.00114906665587214</v>
       </c>
       <c r="D24">
-        <v>-0.0009251330675362334</v>
+        <v>0.0008664700022222712</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1246,31 +1246,31 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.00123557528885713</v>
+        <v>-0.0001221626690803554</v>
       </c>
       <c r="B25">
-        <v>0.0003192258412152032</v>
+        <v>0.0006092385998542116</v>
       </c>
       <c r="C25">
-        <v>-0.001874026971287537</v>
+        <v>-0.001340639868788779</v>
       </c>
       <c r="D25">
-        <v>-0.0005971236064267239</v>
+        <v>0.001096314530628068</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1283,31 +1283,31 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-3.693150002290426e-05</v>
+        <v>-0.0001107224892732439</v>
       </c>
       <c r="B26">
-        <v>0.0001796361841279351</v>
+        <v>0.0001958264545003471</v>
       </c>
       <c r="C26">
-        <v>-0.0003962038682787744</v>
+        <v>-0.000502375398273938</v>
       </c>
       <c r="D26">
-        <v>0.0003223408682329659</v>
+        <v>0.0002809304197274503</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1331,20 +1331,20 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>2.742772293072679e-05</v>
+        <v>-0.0001599030133096386</v>
       </c>
       <c r="B27">
-        <v>0.0003086982114882197</v>
+        <v>0.0002219352683111674</v>
       </c>
       <c r="C27">
-        <v>-0.0005899687000457127</v>
+        <v>-0.0006037735499319733</v>
       </c>
       <c r="D27">
-        <v>0.0006448241459071662</v>
+        <v>0.0002839675233126962</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1368,20 +1368,20 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.000131794549732757</v>
+        <v>2.987241032452547e-05</v>
       </c>
       <c r="B28">
-        <v>0.0002916688226907353</v>
+        <v>0.0002363895065082654</v>
       </c>
       <c r="C28">
-        <v>-0.0007151321951142276</v>
+        <v>-0.0004429066026920053</v>
       </c>
       <c r="D28">
-        <v>0.0004515430956487136</v>
+        <v>0.0005026514233410562</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1405,20 +1405,20 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>1.913565774457908e-05</v>
+        <v>0.0004305102159214303</v>
       </c>
       <c r="B29">
-        <v>0.0001943526265631587</v>
+        <v>0.0002024010936571934</v>
       </c>
       <c r="C29">
-        <v>-0.0003695695953817383</v>
+        <v>2.570802860704343e-05</v>
       </c>
       <c r="D29">
-        <v>0.0004078409108708964</v>
+        <v>0.0008353124032358172</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1442,20 +1442,20 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>-3.693150002290426e-05</v>
+        <v>-0.0001107224892732439</v>
       </c>
       <c r="B30">
-        <v>0.0001796361841279351</v>
+        <v>0.0001958264545003471</v>
       </c>
       <c r="C30">
-        <v>-0.0003962038682787744</v>
+        <v>-0.000502375398273938</v>
       </c>
       <c r="D30">
-        <v>0.0003223408682329659</v>
+        <v>0.0002809304197274503</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1479,20 +1479,20 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>-9.503777092177472e-06</v>
+        <v>-0.0002706255025828824</v>
       </c>
       <c r="B31">
-        <v>0.0004339758130918978</v>
+        <v>0.0003487195246937591</v>
       </c>
       <c r="C31">
-        <v>-0.0008774554032759731</v>
+        <v>-0.0009680645519704006</v>
       </c>
       <c r="D31">
-        <v>0.0008584478490916181</v>
+        <v>0.0004268135468046359</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1516,20 +1516,20 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.0001412983268249345</v>
+        <v>-0.000240753092258357</v>
       </c>
       <c r="B32">
-        <v>0.0005038841645236029</v>
+        <v>0.0003928993869483841</v>
       </c>
       <c r="C32">
-        <v>-0.00114906665587214</v>
+        <v>-0.001026551866155125</v>
       </c>
       <c r="D32">
-        <v>0.0008664700022222712</v>
+        <v>0.0005450456816384114</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1553,20 +1553,20 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.0001221626690803554</v>
+        <v>0.0001897571236630734</v>
       </c>
       <c r="B33">
-        <v>0.0006092385998542116</v>
+        <v>0.0004252763340057316</v>
       </c>
       <c r="C33">
-        <v>-0.001340639868788779</v>
+        <v>-0.0006607955443483898</v>
       </c>
       <c r="D33">
-        <v>0.001096314530628068</v>
+        <v>0.001040309791674537</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1590,20 +1590,20 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.0001107224892732439</v>
+        <v>-0.0002368766193772751</v>
       </c>
       <c r="B34">
-        <v>0.0001958264545003471</v>
+        <v>0.0002124164745083262</v>
       </c>
       <c r="C34">
-        <v>-0.000502375398273938</v>
+        <v>-0.0006617095683939274</v>
       </c>
       <c r="D34">
-        <v>0.0002809304197274503</v>
+        <v>0.0001879563296393772</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1627,20 +1627,20 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.0001599030133096386</v>
+        <v>0.0003480068070442646</v>
       </c>
       <c r="B35">
-        <v>0.0002219352683111674</v>
+        <v>0.0001336477512518789</v>
       </c>
       <c r="C35">
-        <v>-0.0006037735499319733</v>
+        <v>8.071130454050677e-05</v>
       </c>
       <c r="D35">
-        <v>0.0002839675233126962</v>
+        <v>0.0006153023095480225</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1664,20 +1664,20 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>2.987241032452547e-05</v>
+        <v>-6.371773817466445e-05</v>
       </c>
       <c r="B36">
-        <v>0.0002363895065082654</v>
+        <v>0.0001692710159836819</v>
       </c>
       <c r="C36">
-        <v>-0.0004429066026920053</v>
+        <v>-0.0004022597701420281</v>
       </c>
       <c r="D36">
-        <v>0.0005026514233410562</v>
+        <v>0.0002748242937926993</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1701,20 +1701,20 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.0004305102159214303</v>
+        <v>0.0001786511980753629</v>
       </c>
       <c r="B37">
-        <v>0.0002024010936571934</v>
+        <v>0.0001795160790352856</v>
       </c>
       <c r="C37">
-        <v>2.570802860704343e-05</v>
+        <v>-0.0001803809599952083</v>
       </c>
       <c r="D37">
-        <v>0.0008353124032358172</v>
+        <v>0.0005376833561459341</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1738,20 +1738,20 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>-0.0001107224892732439</v>
+        <v>-0.0002368766193772751</v>
       </c>
       <c r="B38">
-        <v>0.0001958264545003471</v>
+        <v>0.0002124164745083262</v>
       </c>
       <c r="C38">
-        <v>-0.000502375398273938</v>
+        <v>-0.0006617095683939274</v>
       </c>
       <c r="D38">
-        <v>0.0002809304197274503</v>
+        <v>0.0001879563296393772</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1775,20 +1775,20 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.0002706255025828824</v>
+        <v>0.0001111301876669895</v>
       </c>
       <c r="B39">
-        <v>0.0003487195246937591</v>
+        <v>0.0002555828910733153</v>
       </c>
       <c r="C39">
-        <v>-0.0009680645519704006</v>
+        <v>-0.0004000355944796412</v>
       </c>
       <c r="D39">
-        <v>0.0004268135468046359</v>
+        <v>0.0006222959698136201</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1812,20 +1812,20 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.000240753092258357</v>
+        <v>4.741244949232503e-05</v>
       </c>
       <c r="B40">
-        <v>0.0003928993869483841</v>
+        <v>0.0003470002932933517</v>
       </c>
       <c r="C40">
-        <v>-0.001026551866155125</v>
+        <v>-0.0006465881370943784</v>
       </c>
       <c r="D40">
-        <v>0.0005450456816384114</v>
+        <v>0.0007414130360790284</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1849,20 +1849,20 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0001897571236630734</v>
+        <v>0.0002260636475676879</v>
       </c>
       <c r="B41">
-        <v>0.0004252763340057316</v>
+        <v>0.0004019439646146342</v>
       </c>
       <c r="C41">
-        <v>-0.0006607955443483898</v>
+        <v>-0.0005778242816615806</v>
       </c>
       <c r="D41">
-        <v>0.001040309791674537</v>
+        <v>0.001029951576796956</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1886,20 +1886,20 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.0002368766193772751</v>
+        <v>0.0001607966353587312</v>
       </c>
       <c r="B42">
-        <v>0.0002124164745083262</v>
+        <v>0.0001736781323860862</v>
       </c>
       <c r="C42">
-        <v>-0.0006617095683939274</v>
+        <v>-0.0001865596294134411</v>
       </c>
       <c r="D42">
-        <v>0.0001879563296393772</v>
+        <v>0.0005081529001309035</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1923,20 +1923,20 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.0003480068070442646</v>
+        <v>0.0002943034503073629</v>
       </c>
       <c r="B43">
-        <v>0.0001336477512518789</v>
+        <v>7.820161038461455e-05</v>
       </c>
       <c r="C43">
-        <v>8.071130454050677e-05</v>
+        <v>0.0001379002295381338</v>
       </c>
       <c r="D43">
-        <v>0.0006153023095480225</v>
+        <v>0.000450706671076592</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1960,20 +1960,20 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-6.371773817466445e-05</v>
+        <v>-0.0002549253153304073</v>
       </c>
       <c r="B44">
-        <v>0.0001692710159836819</v>
+        <v>0.0001662526542697171</v>
       </c>
       <c r="C44">
-        <v>-0.0004022597701420281</v>
+        <v>-0.0005874306238698415</v>
       </c>
       <c r="D44">
-        <v>0.0002748242937926993</v>
+        <v>7.757999320902683e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1997,20 +1997,20 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.0001786511980753629</v>
+        <v>1.673411933612828e-05</v>
       </c>
       <c r="B45">
-        <v>0.0001795160790352856</v>
+        <v>9.431897259256931e-05</v>
       </c>
       <c r="C45">
-        <v>-0.0001803809599952083</v>
+        <v>-0.0001719038258490103</v>
       </c>
       <c r="D45">
-        <v>0.0005376833561459341</v>
+        <v>0.0002053720645212669</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2034,20 +2034,20 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.0002368766193772751</v>
+        <v>0.0001607966353587312</v>
       </c>
       <c r="B46">
-        <v>0.0002124164745083262</v>
+        <v>0.0001736781323860862</v>
       </c>
       <c r="C46">
-        <v>-0.0006617095683939274</v>
+        <v>-0.0001865596294134411</v>
       </c>
       <c r="D46">
-        <v>0.0001879563296393772</v>
+        <v>0.0005081529001309035</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2071,20 +2071,20 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.0001111301876669895</v>
+        <v>0.0004551000856660941</v>
       </c>
       <c r="B47">
-        <v>0.0002555828910733153</v>
+        <v>0.0001948105544248501</v>
       </c>
       <c r="C47">
-        <v>-0.0004000355944796412</v>
+        <v>6.547897681639378e-05</v>
       </c>
       <c r="D47">
-        <v>0.0006222959698136201</v>
+        <v>0.0008447211945157944</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2108,20 +2108,20 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>4.741244949232503e-05</v>
+        <v>0.0002001747703356868</v>
       </c>
       <c r="B48">
-        <v>0.0003470002932933517</v>
+        <v>0.0001444600223597833</v>
       </c>
       <c r="C48">
-        <v>-0.0006465881370943784</v>
+        <v>-8.874527438387973e-05</v>
       </c>
       <c r="D48">
-        <v>0.0007414130360790284</v>
+        <v>0.0004890948150552532</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2145,20 +2145,20 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0002260636475676879</v>
+        <v>0.0002169088896718151</v>
       </c>
       <c r="B49">
-        <v>0.0004019439646146342</v>
+        <v>0.0002019944220580262</v>
       </c>
       <c r="C49">
-        <v>-0.0005778242816615806</v>
+        <v>-0.0001870799544442373</v>
       </c>
       <c r="D49">
-        <v>0.001029951576796956</v>
+        <v>0.0006208977337878674</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2182,20 +2182,20 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.0001607966353587312</v>
+        <v>0.00141033947848569</v>
       </c>
       <c r="B50">
-        <v>0.0001736781323860862</v>
+        <v>0.00318264319493378</v>
       </c>
       <c r="C50">
-        <v>-0.0001865596294134411</v>
+        <v>-0.004954946911381871</v>
       </c>
       <c r="D50">
-        <v>0.0005081529001309035</v>
+        <v>0.00777562586835325</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2208,31 +2208,31 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.0002943034503073629</v>
+        <v>-0.005450524493394206</v>
       </c>
       <c r="B51">
-        <v>7.820161038461455e-05</v>
+        <v>0.002399718070021942</v>
       </c>
       <c r="C51">
-        <v>0.0001379002295381338</v>
+        <v>-0.01024996063343809</v>
       </c>
       <c r="D51">
-        <v>0.000450706671076592</v>
+        <v>-0.0006510883533503223</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2245,31 +2245,31 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.0002549253153304073</v>
+        <v>-0.003311738250335523</v>
       </c>
       <c r="B52">
-        <v>0.0001662526542697171</v>
+        <v>0.000468941768435842</v>
       </c>
       <c r="C52">
-        <v>-0.0005874306238698415</v>
+        <v>-0.004249621787207208</v>
       </c>
       <c r="D52">
-        <v>7.757999320902683e-05</v>
+        <v>-0.00237385471346384</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2282,31 +2282,31 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.673411933612828e-05</v>
+        <v>-0.003932022317898376</v>
       </c>
       <c r="B53">
-        <v>9.431897259256931e-05</v>
+        <v>0.0005893267437246353</v>
       </c>
       <c r="C53">
-        <v>-0.0001719038258490103</v>
+        <v>-0.005110675805347646</v>
       </c>
       <c r="D53">
-        <v>0.0002053720645212669</v>
+        <v>-0.002753368830449106</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2319,31 +2319,31 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0001607966353587312</v>
+        <v>0.00141033947848569</v>
       </c>
       <c r="B54">
-        <v>0.0001736781323860862</v>
+        <v>0.00318264319493378</v>
       </c>
       <c r="C54">
-        <v>-0.0001865596294134411</v>
+        <v>-0.004954946911381871</v>
       </c>
       <c r="D54">
-        <v>0.0005081529001309035</v>
+        <v>0.00777562586835325</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2356,31 +2356,31 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0004551000856660941</v>
+        <v>-0.004040185014908515</v>
       </c>
       <c r="B55">
-        <v>0.0001948105544248501</v>
+        <v>0.005162244475999108</v>
       </c>
       <c r="C55">
-        <v>6.547897681639378e-05</v>
+        <v>-0.01436467396690673</v>
       </c>
       <c r="D55">
-        <v>0.0008447211945157944</v>
+        <v>0.006284303937089701</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2393,31 +2393,31 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.0002001747703356868</v>
+        <v>-0.007351923265244039</v>
       </c>
       <c r="B56">
-        <v>0.0001444600223597833</v>
+        <v>0.005604308909109446</v>
       </c>
       <c r="C56">
-        <v>-8.874527438387973e-05</v>
+        <v>-0.01856054108346293</v>
       </c>
       <c r="D56">
-        <v>0.0004890948150552532</v>
+        <v>0.003856694552974853</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2430,31 +2430,31 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.0002169088896718151</v>
+        <v>-0.01128394558314242</v>
       </c>
       <c r="B57">
-        <v>0.0002019944220580262</v>
+        <v>0.006138576897967463</v>
       </c>
       <c r="C57">
-        <v>-0.0001870799544442373</v>
+        <v>-0.02356109937907734</v>
       </c>
       <c r="D57">
-        <v>0.0006208977337878674</v>
+        <v>0.0009932082127925099</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2467,31 +2467,31 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.00141033947848569</v>
+        <v>-0.0001495985971580782</v>
       </c>
       <c r="B58">
-        <v>0.00318264319493378</v>
+        <v>6.025881692861323e-05</v>
       </c>
       <c r="C58">
-        <v>-0.004954946911381871</v>
+        <v>-0.0002701162310153046</v>
       </c>
       <c r="D58">
-        <v>0.00777562586835325</v>
+        <v>-2.908096330085171e-05</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2504,31 +2504,31 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.005450524493394206</v>
+        <v>-0.0001092964450983538</v>
       </c>
       <c r="B59">
-        <v>0.002399718070021942</v>
+        <v>4.794238423984606e-05</v>
       </c>
       <c r="C59">
-        <v>-0.01024996063343809</v>
+        <v>-0.0002051812135780459</v>
       </c>
       <c r="D59">
-        <v>-0.0006510883533503223</v>
+        <v>-1.341167661866165e-05</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2541,31 +2541,31 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.003311738250335523</v>
+        <v>-0.0001236498024585213</v>
       </c>
       <c r="B60">
-        <v>0.000468941768435842</v>
+        <v>5.354928851032821e-05</v>
       </c>
       <c r="C60">
-        <v>-0.004249621787207208</v>
+        <v>-0.0002307483794791777</v>
       </c>
       <c r="D60">
-        <v>-0.00237385471346384</v>
+        <v>-1.655122543786488e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2578,31 +2578,31 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.003932022317898376</v>
+        <v>-3.63084103670053e-05</v>
       </c>
       <c r="B61">
-        <v>0.0005893267437246353</v>
+        <v>6.258678787005014e-05</v>
       </c>
       <c r="C61">
-        <v>-0.005110675805347646</v>
+        <v>-0.0001614819861071056</v>
       </c>
       <c r="D61">
-        <v>-0.002753368830449106</v>
+        <v>8.886516537309498e-05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2615,31 +2615,31 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.00141033947848569</v>
+        <v>-0.0001495985971580782</v>
       </c>
       <c r="B62">
-        <v>0.00318264319493378</v>
+        <v>6.025881692861323e-05</v>
       </c>
       <c r="C62">
-        <v>-0.004954946911381871</v>
+        <v>-0.0002701162310153046</v>
       </c>
       <c r="D62">
-        <v>0.00777562586835325</v>
+        <v>-2.908096330085171e-05</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2652,31 +2652,31 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.004040185014908515</v>
+        <v>-0.0002588950422564319</v>
       </c>
       <c r="B63">
-        <v>0.005162244475999108</v>
+        <v>9.211039537090714e-05</v>
       </c>
       <c r="C63">
-        <v>-0.01436467396690673</v>
+        <v>-0.0004431158329982462</v>
       </c>
       <c r="D63">
-        <v>0.006284303937089701</v>
+        <v>-7.467425151461767e-05</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2689,31 +2689,31 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>-0.007351923265244039</v>
+        <v>-0.0003825448447149532</v>
       </c>
       <c r="B64">
-        <v>0.005604308909109446</v>
+        <v>0.0001339029131122176</v>
       </c>
       <c r="C64">
-        <v>-0.01856054108346293</v>
+        <v>-0.0006503506709393884</v>
       </c>
       <c r="D64">
-        <v>0.003856694552974853</v>
+        <v>-0.000114739018490518</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2726,31 +2726,31 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.01128394558314242</v>
+        <v>-0.0004188532550819585</v>
       </c>
       <c r="B65">
-        <v>0.006138576897967463</v>
+        <v>0.0001779381654093573</v>
       </c>
       <c r="C65">
-        <v>-0.02356109937907734</v>
+        <v>-0.0007747295859006731</v>
       </c>
       <c r="D65">
-        <v>0.0009932082127925099</v>
+        <v>-6.297692426324397e-05</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2763,31 +2763,31 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.0001495985971580783</v>
+        <v>-6.150034617044825e-05</v>
       </c>
       <c r="B66">
-        <v>6.025881692861296e-05</v>
+        <v>0.0001077890782214501</v>
       </c>
       <c r="C66">
-        <v>-0.0002701162310153043</v>
+        <v>-0.0002770785026133484</v>
       </c>
       <c r="D66">
-        <v>-2.90809633008524e-05</v>
+        <v>0.0001540778102724519</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2800,31 +2800,31 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.0001092964450983539</v>
+        <v>0.0001543364793870231</v>
       </c>
       <c r="B67">
-        <v>4.794238423984603e-05</v>
+        <v>0.0001121129491393258</v>
       </c>
       <c r="C67">
-        <v>-0.0002051812135780459</v>
+        <v>-6.98894188916285e-05</v>
       </c>
       <c r="D67">
-        <v>-1.34116766186618e-05</v>
+        <v>0.0003785623776656748</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2837,31 +2837,31 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.0001236498024585215</v>
+        <v>1.33076294660931e-05</v>
       </c>
       <c r="B68">
-        <v>5.354928851032817e-05</v>
+        <v>9.178226231362649e-05</v>
       </c>
       <c r="C68">
-        <v>-0.0002307483794791778</v>
+        <v>-0.0001702568951611599</v>
       </c>
       <c r="D68">
-        <v>-1.655122543786515e-05</v>
+        <v>0.0001968721540933461</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2874,31 +2874,31 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-3.630841036700561e-05</v>
+        <v>0.0001636985938465942</v>
       </c>
       <c r="B69">
-        <v>6.258678787005029e-05</v>
+        <v>8.075034713969577e-05</v>
       </c>
       <c r="C69">
-        <v>-0.0001614819861071062</v>
+        <v>2.197899567202689e-06</v>
       </c>
       <c r="D69">
-        <v>8.886516537309498e-05</v>
+        <v>0.0003251992881259858</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2911,31 +2911,31 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.0001495985971580783</v>
+        <v>-6.150034617044825e-05</v>
       </c>
       <c r="B70">
-        <v>6.025881692861296e-05</v>
+        <v>0.0001077890782214501</v>
       </c>
       <c r="C70">
-        <v>-0.0002701162310153043</v>
+        <v>-0.0002770785026133484</v>
       </c>
       <c r="D70">
-        <v>-2.90809633008524e-05</v>
+        <v>0.0001540778102724519</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2948,31 +2948,31 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.0002588950422564322</v>
+        <v>9.283613321657489e-05</v>
       </c>
       <c r="B71">
-        <v>9.211039537090717e-05</v>
+        <v>0.0001615577008266654</v>
       </c>
       <c r="C71">
-        <v>-0.0004431158329982465</v>
+        <v>-0.000230279268436756</v>
       </c>
       <c r="D71">
-        <v>-7.467425151461783e-05</v>
+        <v>0.0004159515348699058</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2985,31 +2985,31 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.0003825448447149537</v>
+        <v>0.000106143762682668</v>
       </c>
       <c r="B72">
-        <v>0.0001339029131122179</v>
+        <v>0.0002010206356659124</v>
       </c>
       <c r="C72">
-        <v>-0.0006503506709393894</v>
+        <v>-0.0002958975086491568</v>
       </c>
       <c r="D72">
-        <v>-0.0001147390184905179</v>
+        <v>0.0005081850340144928</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3022,31 +3022,31 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.0004188532550819593</v>
+        <v>0.0002698423565292622</v>
       </c>
       <c r="B73">
-        <v>0.0001779381654093575</v>
+        <v>0.0002191402967584792</v>
       </c>
       <c r="C73">
-        <v>-0.0007747295859006744</v>
+        <v>-0.0001684382369876961</v>
       </c>
       <c r="D73">
-        <v>-6.297692426324424e-05</v>
+        <v>0.0007081229500462206</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3059,31 +3059,31 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>-6.150034617044839e-05</v>
+        <v>2.063575428432013e-05</v>
       </c>
       <c r="B74">
-        <v>0.0001077890782214501</v>
+        <v>7.580254180815115e-05</v>
       </c>
       <c r="C74">
-        <v>-0.0002770785026133486</v>
+        <v>-0.0001309693293319822</v>
       </c>
       <c r="D74">
-        <v>0.0001540778102724518</v>
+        <v>0.0001722408379006224</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3096,31 +3096,31 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.0001543364793870232</v>
+        <v>0.0001436868003672295</v>
       </c>
       <c r="B75">
-        <v>0.0001121129491393259</v>
+        <v>7.671009433123004e-05</v>
       </c>
       <c r="C75">
-        <v>-6.98894188916285e-05</v>
+        <v>-9.733388295230628e-06</v>
       </c>
       <c r="D75">
-        <v>0.0003785623776656749</v>
+        <v>0.0002971069890296895</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3133,31 +3133,31 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.33076294660932e-05</v>
+        <v>-4.989277693253841e-05</v>
       </c>
       <c r="B76">
-        <v>9.178226231362645e-05</v>
+        <v>0.0001058351067227307</v>
       </c>
       <c r="C76">
-        <v>-0.0001702568951611597</v>
+        <v>-0.0002615629903779999</v>
       </c>
       <c r="D76">
-        <v>0.0001968721540933461</v>
+        <v>0.000161777436512923</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3170,31 +3170,31 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.0001636985938465944</v>
+        <v>1.743931489838867e-05</v>
       </c>
       <c r="B77">
-        <v>8.075034713969578e-05</v>
+        <v>7.1687751503003e-05</v>
       </c>
       <c r="C77">
-        <v>2.197899567202825e-06</v>
+        <v>-0.0001259361881076173</v>
       </c>
       <c r="D77">
-        <v>0.0003251992881259859</v>
+        <v>0.0001608148179043947</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3207,31 +3207,31 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>-6.150034617044839e-05</v>
+        <v>2.063575428432013e-05</v>
       </c>
       <c r="B78">
-        <v>0.0001077890782214501</v>
+        <v>7.580254180815115e-05</v>
       </c>
       <c r="C78">
-        <v>-0.0002770785026133486</v>
+        <v>-0.0001309693293319822</v>
       </c>
       <c r="D78">
-        <v>0.0001540778102724518</v>
+        <v>0.0001722408379006224</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3244,31 +3244,31 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>9.283613321657481e-05</v>
+        <v>0.0001643225546515496</v>
       </c>
       <c r="B79">
-        <v>0.0001615577008266655</v>
+        <v>0.0001232947341820971</v>
       </c>
       <c r="C79">
-        <v>-0.0002302792684367561</v>
+        <v>-8.226691371264469e-05</v>
       </c>
       <c r="D79">
-        <v>0.0004159515348699058</v>
+        <v>0.0004109120230157439</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3281,31 +3281,31 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.000106143762682668</v>
+        <v>0.0001144297777190112</v>
       </c>
       <c r="B80">
-        <v>0.0002010206356659124</v>
+        <v>0.0001850417007218482</v>
       </c>
       <c r="C80">
-        <v>-0.0002958975086491569</v>
+        <v>-0.0002556536237246852</v>
       </c>
       <c r="D80">
-        <v>0.0005081850340144928</v>
+        <v>0.0004845131791627076</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3318,31 +3318,31 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0002698423565292624</v>
+        <v>0.0001318690926173999</v>
       </c>
       <c r="B81">
-        <v>0.0002191402967584792</v>
+        <v>0.000214780804904358</v>
       </c>
       <c r="C81">
-        <v>-0.000168438236987696</v>
+        <v>-0.0002976925171913162</v>
       </c>
       <c r="D81">
-        <v>0.0007081229500462208</v>
+        <v>0.0005614307024261159</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3355,31 +3355,31 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2.063575428432013e-05</v>
+        <v>-0.0001556043791750766</v>
       </c>
       <c r="B82">
-        <v>7.580254180815115e-05</v>
+        <v>0.0001076119743941401</v>
       </c>
       <c r="C82">
-        <v>-0.0001309693293319822</v>
+        <v>-0.0003708283279633568</v>
       </c>
       <c r="D82">
-        <v>0.0001722408379006224</v>
+        <v>5.96195696132037e-05</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3392,31 +3392,31 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.0001436868003672295</v>
+        <v>0.000117370149750794</v>
       </c>
       <c r="B83">
-        <v>7.671009433123004e-05</v>
+        <v>9.906189266391913e-05</v>
       </c>
       <c r="C83">
-        <v>-9.733388295230628e-06</v>
+        <v>-8.075363557704431e-05</v>
       </c>
       <c r="D83">
-        <v>0.0002971069890296895</v>
+        <v>0.0003154939350786322</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3429,31 +3429,31 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>-4.989277693253841e-05</v>
+        <v>-0.0001866363220704454</v>
       </c>
       <c r="B84">
-        <v>0.0001058351067227307</v>
+        <v>0.0001496757173285064</v>
       </c>
       <c r="C84">
-        <v>-0.0002615629903779999</v>
+        <v>-0.0004859877567274582</v>
       </c>
       <c r="D84">
-        <v>0.000161777436512923</v>
+        <v>0.0001127151125865675</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3466,31 +3466,31 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.743931489838867e-05</v>
+        <v>0.0002425659122341182</v>
       </c>
       <c r="B85">
-        <v>7.1687751503003e-05</v>
+        <v>9.225064333920284e-05</v>
       </c>
       <c r="C85">
-        <v>-0.0001259361881076173</v>
+        <v>5.806462555571249e-05</v>
       </c>
       <c r="D85">
-        <v>0.0001608148179043947</v>
+        <v>0.0004270671989125239</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3503,31 +3503,31 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2.063575428432013e-05</v>
+        <v>-0.0001556043791750766</v>
       </c>
       <c r="B86">
-        <v>7.580254180815115e-05</v>
+        <v>0.0001076119743941401</v>
       </c>
       <c r="C86">
-        <v>-0.0001309693293319822</v>
+        <v>-0.0003708283279633568</v>
       </c>
       <c r="D86">
-        <v>0.0001722408379006224</v>
+        <v>5.96195696132037e-05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3540,31 +3540,31 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.0001643225546515496</v>
+        <v>-3.82342294242826e-05</v>
       </c>
       <c r="B87">
-        <v>0.0001232947341820971</v>
+        <v>0.0001179076013854768</v>
       </c>
       <c r="C87">
-        <v>-8.226691371264469e-05</v>
+        <v>-0.0002740494321952361</v>
       </c>
       <c r="D87">
-        <v>0.0004109120230157439</v>
+        <v>0.0001975809733466709</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3577,31 +3577,31 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.0001144297777190112</v>
+        <v>-0.000224870551494728</v>
       </c>
       <c r="B88">
-        <v>0.0001850417007218482</v>
+        <v>0.0002176788270486313</v>
       </c>
       <c r="C88">
-        <v>-0.0002556536237246852</v>
+        <v>-0.0006602282055919906</v>
       </c>
       <c r="D88">
-        <v>0.0004845131791627076</v>
+        <v>0.0002104871026025347</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3614,31 +3614,31 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.0001318690926173999</v>
+        <v>1.769536073939021e-05</v>
       </c>
       <c r="B89">
-        <v>0.000214780804904358</v>
+        <v>0.0002503810523398432</v>
       </c>
       <c r="C89">
-        <v>-0.0002976925171913162</v>
+        <v>-0.0004830667439402962</v>
       </c>
       <c r="D89">
-        <v>0.0005614307024261159</v>
+        <v>0.0005184574654190767</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3651,31 +3651,31 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.0001556043791750766</v>
+        <v>-0.0002931870964659122</v>
       </c>
       <c r="B90">
-        <v>0.0001076119743941401</v>
+        <v>0.000106192131307378</v>
       </c>
       <c r="C90">
-        <v>-0.0003708283279633568</v>
+        <v>-0.0005055713590806682</v>
       </c>
       <c r="D90">
-        <v>5.96195696132037e-05</v>
+        <v>-8.080283385115616e-05</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3688,31 +3688,31 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.000117370149750794</v>
+        <v>0.000365376352638923</v>
       </c>
       <c r="B91">
-        <v>9.906189266391913e-05</v>
+        <v>0.0002165216275798585</v>
       </c>
       <c r="C91">
-        <v>-8.075363557704431e-05</v>
+        <v>-6.766690252079402e-05</v>
       </c>
       <c r="D91">
-        <v>0.0003154939350786322</v>
+        <v>0.0007984196077986401</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3725,31 +3725,31 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.0001866363220704454</v>
+        <v>0.0001090425073242804</v>
       </c>
       <c r="B92">
-        <v>0.0001496757173285064</v>
+        <v>0.0002358998895479615</v>
       </c>
       <c r="C92">
-        <v>-0.0004859877567274582</v>
+        <v>-0.0003627572717716425</v>
       </c>
       <c r="D92">
-        <v>0.0001127151125865675</v>
+        <v>0.0005808422864202033</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3762,31 +3762,31 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.0002425659122341182</v>
+        <v>-0.0003484187914501665</v>
       </c>
       <c r="B93">
-        <v>9.225064333920284e-05</v>
+        <v>0.0002618021841330723</v>
       </c>
       <c r="C93">
-        <v>5.806462555571249e-05</v>
+        <v>-0.0008720231597163111</v>
       </c>
       <c r="D93">
-        <v>0.0004270671989125239</v>
+        <v>0.0001751855768159781</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3799,31 +3799,31 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.0001556043791750766</v>
+        <v>-0.0002931870964659122</v>
       </c>
       <c r="B94">
-        <v>0.0001076119743941401</v>
+        <v>0.000106192131307378</v>
       </c>
       <c r="C94">
-        <v>-0.0003708283279633568</v>
+        <v>-0.0005055713590806682</v>
       </c>
       <c r="D94">
-        <v>5.96195696132037e-05</v>
+        <v>-8.080283385115616e-05</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3836,31 +3836,31 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-3.82342294242826e-05</v>
+        <v>7.218925617301082e-05</v>
       </c>
       <c r="B95">
-        <v>0.0001179076013854768</v>
+        <v>0.0002693003162991381</v>
       </c>
       <c r="C95">
-        <v>-0.0002740494321952361</v>
+        <v>-0.0004664113764252653</v>
       </c>
       <c r="D95">
-        <v>0.0001975809733466709</v>
+        <v>0.000610789888771287</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3873,31 +3873,31 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.000224870551494728</v>
+        <v>0.0001812317634972912</v>
       </c>
       <c r="B96">
-        <v>0.0002176788270486313</v>
+        <v>0.0003132167805345027</v>
       </c>
       <c r="C96">
-        <v>-0.0006602282055919906</v>
+        <v>-0.0004452017975717142</v>
       </c>
       <c r="D96">
-        <v>0.0002104871026025347</v>
+        <v>0.0008076653245662966</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3910,31 +3910,31 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.769536073939021e-05</v>
+        <v>-0.0001671870279528753</v>
       </c>
       <c r="B97">
-        <v>0.0002503810523398432</v>
+        <v>0.0003354187053504539</v>
       </c>
       <c r="C97">
-        <v>-0.0004830667439402962</v>
+        <v>-0.0008380244386537829</v>
       </c>
       <c r="D97">
-        <v>0.0005184574654190767</v>
+        <v>0.0005036503827480325</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3947,31 +3947,31 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.0002931870964659122</v>
+        <v>1.680982386603011e-05</v>
       </c>
       <c r="B98">
-        <v>0.000106192131307378</v>
+        <v>2.540328620584687e-05</v>
       </c>
       <c r="C98">
-        <v>-0.0005055713590806682</v>
+        <v>-3.399674854566364e-05</v>
       </c>
       <c r="D98">
-        <v>-8.080283385115616e-05</v>
+        <v>6.761639627772385e-05</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3984,31 +3984,31 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.000365376352638923</v>
+        <v>1.697359501256972e-05</v>
       </c>
       <c r="B99">
-        <v>0.0002165216275798585</v>
+        <v>2.353801278912972e-05</v>
       </c>
       <c r="C99">
-        <v>-6.766690252079402e-05</v>
+        <v>-3.010243056568973e-05</v>
       </c>
       <c r="D99">
-        <v>0.0007984196077986401</v>
+        <v>6.404962059082917e-05</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4021,31 +4021,31 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0001090425073242804</v>
+        <v>-3.16944877844727e-05</v>
       </c>
       <c r="B100">
-        <v>0.0002358998895479615</v>
+        <v>2.240425067674628e-05</v>
       </c>
       <c r="C100">
-        <v>-0.0003627572717716425</v>
+        <v>-7.650298913796525e-05</v>
       </c>
       <c r="D100">
-        <v>0.0005808422864202033</v>
+        <v>1.311401356901986e-05</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4058,31 +4058,31 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>-0.0003484187914501665</v>
+        <v>4.163141770257406e-05</v>
       </c>
       <c r="B101">
-        <v>0.0002618021841330723</v>
+        <v>2.852259348526177e-05</v>
       </c>
       <c r="C101">
-        <v>-0.0008720231597163111</v>
+        <v>-1.541376926794948e-05</v>
       </c>
       <c r="D101">
-        <v>0.0001751855768159781</v>
+        <v>9.867660467309761e-05</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4095,31 +4095,31 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.0002931870964659122</v>
+        <v>1.680982386603011e-05</v>
       </c>
       <c r="B102">
-        <v>0.000106192131307378</v>
+        <v>2.540328620584687e-05</v>
       </c>
       <c r="C102">
-        <v>-0.0005055713590806682</v>
+        <v>-3.399674854566364e-05</v>
       </c>
       <c r="D102">
-        <v>-8.080283385115616e-05</v>
+        <v>6.761639627772385e-05</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4132,31 +4132,31 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>7.218925617301082e-05</v>
+        <v>3.378341887859983e-05</v>
       </c>
       <c r="B103">
-        <v>0.0002693003162991381</v>
+        <v>3.775222295380853e-05</v>
       </c>
       <c r="C103">
-        <v>-0.0004664113764252653</v>
+        <v>-4.172102702901722e-05</v>
       </c>
       <c r="D103">
-        <v>0.000610789888771287</v>
+        <v>0.0001092878647862169</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4169,31 +4169,31 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.0001812317634972912</v>
+        <v>2.088931094127127e-06</v>
       </c>
       <c r="B104">
-        <v>0.0003132167805345027</v>
+        <v>4.059410859679284e-05</v>
       </c>
       <c r="C104">
-        <v>-0.0004452017975717142</v>
+        <v>-7.909928609945856e-05</v>
       </c>
       <c r="D104">
-        <v>0.0008076653245662966</v>
+        <v>8.327714828771282e-05</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4206,31 +4206,31 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.0001671870279528753</v>
+        <v>4.372034879670119e-05</v>
       </c>
       <c r="B105">
-        <v>0.0003354187053504539</v>
+        <v>5.529637247365054e-05</v>
       </c>
       <c r="C105">
-        <v>-0.0008380244386537829</v>
+        <v>-6.687239615059989e-05</v>
       </c>
       <c r="D105">
-        <v>0.0005036503827480325</v>
+        <v>0.0001543130937440023</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4243,31 +4243,31 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.680982386603006e-05</v>
+        <v>0.0008341001120252519</v>
       </c>
       <c r="B106">
-        <v>2.540328620584686e-05</v>
+        <v>0.0004705306858718725</v>
       </c>
       <c r="C106">
-        <v>-3.399674854566366e-05</v>
+        <v>-0.0001069612597184932</v>
       </c>
       <c r="D106">
-        <v>6.761639627772378e-05</v>
+        <v>0.001775161483768997</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -4291,20 +4291,20 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.697359501256971e-05</v>
+        <v>-0.0008880788163488</v>
       </c>
       <c r="B107">
-        <v>2.353801278912972e-05</v>
+        <v>0.0005056054930883199</v>
       </c>
       <c r="C107">
-        <v>-3.010243056568974e-05</v>
+        <v>-0.00189928980252544</v>
       </c>
       <c r="D107">
-        <v>6.404962059082916e-05</v>
+        <v>0.0001231321698278397</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -4328,20 +4328,20 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>-3.169448778447282e-05</v>
+        <v>-0.001542653730159047</v>
       </c>
       <c r="B108">
-        <v>2.240425067674631e-05</v>
+        <v>0.001100083529951531</v>
       </c>
       <c r="C108">
-        <v>-7.650298913796543e-05</v>
+        <v>-0.003742820790062109</v>
       </c>
       <c r="D108">
-        <v>1.31140135690198e-05</v>
+        <v>0.0006575133297440157</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -4365,20 +4365,20 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>4.16314177025741e-05</v>
+        <v>0.001372961939906347</v>
       </c>
       <c r="B109">
-        <v>2.852259348526168e-05</v>
+        <v>0.0003377163459738937</v>
       </c>
       <c r="C109">
-        <v>-1.541376926794927e-05</v>
+        <v>0.0006975292479585595</v>
       </c>
       <c r="D109">
-        <v>9.867660467309747e-05</v>
+        <v>0.002048394631854134</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -4402,20 +4402,20 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.680982386603006e-05</v>
+        <v>0.0008341001120252519</v>
       </c>
       <c r="B110">
-        <v>2.540328620584686e-05</v>
+        <v>0.0004705306858718725</v>
       </c>
       <c r="C110">
-        <v>-3.399674854566366e-05</v>
+        <v>-0.0001069612597184932</v>
       </c>
       <c r="D110">
-        <v>6.761639627772378e-05</v>
+        <v>0.001775161483768997</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -4439,20 +4439,20 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>3.378341887859977e-05</v>
+        <v>-5.397870432354815e-05</v>
       </c>
       <c r="B111">
-        <v>3.775222295380849e-05</v>
+        <v>0.0009492416521985082</v>
       </c>
       <c r="C111">
-        <v>-4.172102702901722e-05</v>
+        <v>-0.001952462008720564</v>
       </c>
       <c r="D111">
-        <v>0.0001092878647862167</v>
+        <v>0.001844504600073468</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -4476,20 +4476,20 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>2.088931094126947e-06</v>
+        <v>-0.001596632434482595</v>
       </c>
       <c r="B112">
-        <v>4.059410859679278e-05</v>
+        <v>0.001896218131288337</v>
       </c>
       <c r="C112">
-        <v>-7.909928609945861e-05</v>
+        <v>-0.005389068697059268</v>
       </c>
       <c r="D112">
-        <v>8.327714828771252e-05</v>
+        <v>0.002195803828094078</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -4513,20 +4513,20 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>4.372034879670104e-05</v>
+        <v>-0.0002236704945762478</v>
       </c>
       <c r="B113">
-        <v>5.529637247365045e-05</v>
+        <v>0.002156013113595659</v>
       </c>
       <c r="C113">
-        <v>-6.687239615059987e-05</v>
+        <v>-0.004535696721767566</v>
       </c>
       <c r="D113">
-        <v>0.000154313093744002</v>
+        <v>0.004088355732615071</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -4550,20 +4550,20 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.0008341001120252512</v>
+        <v>0.0003181398841155241</v>
       </c>
       <c r="B114">
-        <v>0.000470530685871873</v>
+        <v>0.0001304266895115721</v>
       </c>
       <c r="C114">
-        <v>-0.0001069612597184947</v>
+        <v>5.728650509238001e-05</v>
       </c>
       <c r="D114">
-        <v>0.001775161483768997</v>
+        <v>0.0005789932631386683</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4576,31 +4576,31 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.0008880788163488006</v>
+        <v>0.0002714102662621717</v>
       </c>
       <c r="B115">
-        <v>0.0005056054930883197</v>
+        <v>0.0001982729666043693</v>
       </c>
       <c r="C115">
-        <v>-0.00189928980252544</v>
+        <v>-0.0001251356669465669</v>
       </c>
       <c r="D115">
-        <v>0.0001231321698278389</v>
+        <v>0.0006679561994709104</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4613,31 +4613,31 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.001542653730159047</v>
+        <v>-0.0006163777677057036</v>
       </c>
       <c r="B116">
-        <v>0.001100083529951531</v>
+        <v>0.0002614222952340124</v>
       </c>
       <c r="C116">
-        <v>-0.003742820790062109</v>
+        <v>-0.001139222358173728</v>
       </c>
       <c r="D116">
-        <v>0.0006575133297440138</v>
+        <v>-9.353317723767877e-05</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4650,31 +4650,31 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.001372961939906347</v>
+        <v>0.0002050282023397039</v>
       </c>
       <c r="B117">
-        <v>0.0003377163459738934</v>
+        <v>0.0001368715837314585</v>
       </c>
       <c r="C117">
-        <v>0.0006975292479585598</v>
+        <v>-6.871496512321298e-05</v>
       </c>
       <c r="D117">
-        <v>0.002048394631854134</v>
+        <v>0.0004787713698026208</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4687,31 +4687,31 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.0008341001120252512</v>
+        <v>0.0003181398841155241</v>
       </c>
       <c r="B118">
-        <v>0.000470530685871873</v>
+        <v>0.0001304266895115721</v>
       </c>
       <c r="C118">
-        <v>-0.0001069612597184947</v>
+        <v>5.728650509238001e-05</v>
       </c>
       <c r="D118">
-        <v>0.001775161483768997</v>
+        <v>0.0005789932631386683</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4724,31 +4724,31 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>-5.397870432354934e-05</v>
+        <v>0.0005895501503776959</v>
       </c>
       <c r="B119">
-        <v>0.0009492416521985083</v>
+        <v>0.0002419934691298967</v>
       </c>
       <c r="C119">
-        <v>-0.001952462008720566</v>
+        <v>0.0001055632121179024</v>
       </c>
       <c r="D119">
-        <v>0.001844504600073467</v>
+        <v>0.001073537088637489</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4761,31 +4761,31 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>-0.001596632434482597</v>
+        <v>-2.682761732800772e-05</v>
       </c>
       <c r="B120">
-        <v>0.001896218131288336</v>
+        <v>0.0003687995572994057</v>
       </c>
       <c r="C120">
-        <v>-0.005389068697059269</v>
+        <v>-0.0007644267319268191</v>
       </c>
       <c r="D120">
-        <v>0.002195803828094076</v>
+        <v>0.0007107714972708037</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4798,31 +4798,31 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-0.0002236704945762501</v>
+        <v>0.0001782005850116962</v>
       </c>
       <c r="B121">
-        <v>0.002156013113595659</v>
+        <v>0.0004249674903469962</v>
       </c>
       <c r="C121">
-        <v>-0.004535696721767567</v>
+        <v>-0.0006717343956822962</v>
       </c>
       <c r="D121">
-        <v>0.004088355732615067</v>
+        <v>0.001028135565705689</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4835,306 +4835,10 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
-        <is>
-          <t>East Asia &amp; Pacific</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>0.0003181398841155241</v>
-      </c>
-      <c r="B122">
-        <v>0.0001304266895115721</v>
-      </c>
-      <c r="C122">
-        <v>5.728650509238001e-05</v>
-      </c>
-      <c r="D122">
-        <v>0.0005789932631386683</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>0.0002714102662621717</v>
-      </c>
-      <c r="B123">
-        <v>0.0001982729666043693</v>
-      </c>
-      <c r="C123">
-        <v>-0.0001251356669465669</v>
-      </c>
-      <c r="D123">
-        <v>0.0006679561994709104</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>-0.0006163777677057036</v>
-      </c>
-      <c r="B124">
-        <v>0.0002614222952340124</v>
-      </c>
-      <c r="C124">
-        <v>-0.001139222358173728</v>
-      </c>
-      <c r="D124">
-        <v>-9.353317723767877e-05</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G124">
-        <v>2</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>0.0002050282023397039</v>
-      </c>
-      <c r="B125">
-        <v>0.0001368715837314585</v>
-      </c>
-      <c r="C125">
-        <v>-6.871496512321298e-05</v>
-      </c>
-      <c r="D125">
-        <v>0.0004787713698026208</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G125">
-        <v>3</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>0.0003181398841155241</v>
-      </c>
-      <c r="B126">
-        <v>0.0001304266895115721</v>
-      </c>
-      <c r="C126">
-        <v>5.728650509238001e-05</v>
-      </c>
-      <c r="D126">
-        <v>0.0005789932631386683</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>0.0005895501503776959</v>
-      </c>
-      <c r="B127">
-        <v>0.0002419934691298967</v>
-      </c>
-      <c r="C127">
-        <v>0.0001055632121179024</v>
-      </c>
-      <c r="D127">
-        <v>0.001073537088637489</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>-2.682761732800772e-05</v>
-      </c>
-      <c r="B128">
-        <v>0.0003687995572994057</v>
-      </c>
-      <c r="C128">
-        <v>-0.0007644267319268191</v>
-      </c>
-      <c r="D128">
-        <v>0.0007107714972708037</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G128">
-        <v>2</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>0.0001782005850116962</v>
-      </c>
-      <c r="B129">
-        <v>0.0004249674903469962</v>
-      </c>
-      <c r="C129">
-        <v>-0.0006717343956822962</v>
-      </c>
-      <c r="D129">
-        <v>0.001028135565705689</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G129">
-        <v>3</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
         <is>
           <t>Sub-Saharan Africa</t>
         </is>
